--- a/Documentación/Fallas detectadas.xlsx
+++ b/Documentación/Fallas detectadas.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
